--- a/FantaSoccer/MyModule/Bundesliga/xGA_home_all_14.xlsx
+++ b/FantaSoccer/MyModule/Bundesliga/xGA_home_all_14.xlsx
@@ -587,7 +587,7 @@
         <v>3.92364</v>
       </c>
       <c r="H3">
-        <v>4.93505</v>
+        <v>4.935049999999999</v>
       </c>
       <c r="I3">
         <v>7.45187</v>
@@ -596,16 +596,16 @@
         <v>7.45187</v>
       </c>
       <c r="K3">
-        <v>7.921976000000001</v>
+        <v>7.921976</v>
       </c>
       <c r="L3">
-        <v>7.921976000000001</v>
+        <v>7.921976</v>
       </c>
       <c r="M3">
-        <v>9.829666000000001</v>
+        <v>9.829666</v>
       </c>
       <c r="N3">
-        <v>9.829666000000001</v>
+        <v>9.829666</v>
       </c>
       <c r="O3">
         <v>12.202676</v>
@@ -743,13 +743,13 @@
         <v>4.120301</v>
       </c>
       <c r="M6">
-        <v>7.197071000000001</v>
+        <v>7.197070999999999</v>
       </c>
       <c r="N6">
-        <v>7.197071000000001</v>
+        <v>7.197070999999999</v>
       </c>
       <c r="O6">
-        <v>7.197071000000001</v>
+        <v>7.197070999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -922,22 +922,22 @@
         <v>3.418922</v>
       </c>
       <c r="J10">
-        <v>6.623531999999999</v>
+        <v>6.623532000000001</v>
       </c>
       <c r="K10">
-        <v>6.623531999999999</v>
+        <v>6.623532000000001</v>
       </c>
       <c r="L10">
-        <v>8.292062</v>
+        <v>8.292062000000001</v>
       </c>
       <c r="M10">
-        <v>8.530446</v>
+        <v>8.530446000000001</v>
       </c>
       <c r="N10">
-        <v>8.530446</v>
+        <v>8.530446000000001</v>
       </c>
       <c r="O10">
-        <v>9.568726</v>
+        <v>9.568726000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1242,16 +1242,16 @@
         <v>3.76783</v>
       </c>
       <c r="G17">
-        <v>6.142989999999999</v>
+        <v>6.14299</v>
       </c>
       <c r="H17">
-        <v>6.142989999999999</v>
+        <v>6.14299</v>
       </c>
       <c r="I17">
-        <v>9.632299999999999</v>
+        <v>9.632300000000001</v>
       </c>
       <c r="J17">
-        <v>9.632299999999999</v>
+        <v>9.632300000000001</v>
       </c>
       <c r="K17">
         <v>10.521335</v>
@@ -1304,16 +1304,16 @@
         <v>4.34688</v>
       </c>
       <c r="L18">
-        <v>6.479489999999999</v>
+        <v>6.47949</v>
       </c>
       <c r="M18">
-        <v>6.479489999999999</v>
+        <v>6.47949</v>
       </c>
       <c r="N18">
-        <v>9.857199999999999</v>
+        <v>9.857200000000001</v>
       </c>
       <c r="O18">
-        <v>9.857199999999999</v>
+        <v>9.857200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1354,10 +1354,10 @@
         <v>6.411548999999999</v>
       </c>
       <c r="M19">
-        <v>7.925469</v>
+        <v>7.925468999999999</v>
       </c>
       <c r="N19">
-        <v>7.925469</v>
+        <v>7.925468999999999</v>
       </c>
       <c r="O19">
         <v>9.034808999999999</v>
